--- a/biology/Zoologie/Episinus/Episinus.xlsx
+++ b/biology/Zoologie/Episinus/Episinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Episinus est un genre d'araignées aranéomorphes de la famille des Theridiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episinus est un genre d'araignées aranéomorphes de la famille des Theridiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, en Amérique, en Afrique, en Europe et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, en Amérique, en Afrique, en Europe et en Océanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 31/10/2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 31/10/2022) :
 Episinus affinis Bösenberg &amp; Strand, 1906
 Episinus algiricus Lucas, 1846
 Episinus amoenus Banks, 1911
@@ -594,7 +610,7 @@
 Episinus variacorneus Chen, Peng &amp; Zhao, 1992
 Episinus xiushanicus Zhu, 1998
 Episinus yoshidai Okuma, 1994
-Selon World Spider Catalog (version 20.5, 2020)[2] :
+Selon World Spider Catalog (version 20.5, 2020) :
 † Episinus anapidaeque Wunderlich, 2008
 † Episinus antecognatus Wunderlich, 1986
 † Episinus appendix Wunderlich, 2008
@@ -654,10 +670,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Latreille en 1809.
-Penictis[3], Plocamis[3], Episinopsis[4] et Hyocrea[4], ont été placés en synonymie par Levi et Levi en 1962[5].
+Penictis, Plocamis, Episinopsis et Hyocrea, ont été placés en synonymie par Levi et Levi en 1962.
 </t>
         </is>
       </c>
@@ -686,7 +704,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Latreille, 1809 : Genera crustaceorum et insectorum. Paris, vol. 4, p. 370-371.</t>
         </is>
